--- a/sprint_planning.xlsx
+++ b/sprint_planning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miiyao7/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miiyao7/Hala-sWorld-SOEN341_Project_W25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22FECBA9-8108-3046-96E5-7C1C0B537C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9B2E3C-0468-7243-B602-61C33CD0132B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-140" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Issue #</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>* create register page</t>
+  </si>
+  <si>
+    <t>ds</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -586,6 +589,9 @@
     </row>
     <row r="5" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
+      <c r="B5" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="9"/>
